--- a/public/assets/template/matkul.xlsx
+++ b/public/assets/template/matkul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\sisfo-akbid\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED5FA13-A563-4B79-943D-9ED1A58E899C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFA0D82-A356-4D3B-9E0E-651AAB482362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{101DCB9C-13EF-49BB-A065-303A8496455B}"/>
+    <workbookView xWindow="345" yWindow="705" windowWidth="21600" windowHeight="11295" xr2:uid="{101DCB9C-13EF-49BB-A065-303A8496455B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>SKS</t>
+  </si>
+  <si>
+    <t>Program Studi</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4356774-B3FF-415D-9983-9F6DCC9FBF5D}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="B1:G1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,10 +411,14 @@
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,15 +429,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
